--- a/biology/Médecine/Ostéosynthèse/Ostéosynthèse.xlsx
+++ b/biology/Médecine/Ostéosynthèse/Ostéosynthèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9osynth%C3%A8se</t>
+          <t>Ostéosynthèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéosynthèse regroupe l'ensemble des procédés qui permettent de traiter des fractures ou des problèmes d'ordre mécanique sur le squelette à l'aide de vis, de plaques, de clous, de tiges ou d'autres dispositifs placés à l'intérieur du corps, à même l'os, ou à l'extérieur du corps à l'aide de fixateurs externes. 
 Elle se distingue de l'orthopédie, qui vise à corriger les affections congénitales ou acquises des os, articulations, muscles, tendons et ligaments.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9osynth%C3%A8se</t>
+          <t>Ostéosynthèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Volontiers réalisée sous anesthésie, l'ostéosynthèse vise à rapprocher et maintenir les parties de l'os fracturé dans leur position anatomique d'origine afin de permettre une bonne consolidation osseuse. 
 Cette technique débute avec les travaux du médecin belge Robert Danis.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9osynth%C3%A8se</t>
+          <t>Ostéosynthèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Introduction à l'ostéosynthèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aspects techniques de  l'ostéosynthèse (ou pose d'implants de contention interne et/ou externe) sont le chemin critique menant à la consolidation de l'os, en position anatomique sans risquer la faillite de l'implant.
 Le contexte : C'est une opération chirurgicale réalisée principalement sous anesthésie générale. Il faudra donc parfois patienter quelques heures pour attendre que l'estomac soit vide. En attendant, une attelle ou une immobilisation par traction est mise en place, et la douleur est soulagée par des injections.
